--- a/Dataset/Folds/Fold_3/Excel/83.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/83.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="504">
   <si>
     <t>Doi</t>
   </si>
@@ -1667,6 +1667,141 @@
   </si>
   <si>
     <t>[Kevin%Hur%NULL%1,                           Caroline P. E.%Price%NULL%1,                           Elizabeth L.%Gray%NULL%1,                           Reeti K.%Gulati%NULL%1,                           Matthew%Maksimoski%NULL%1,                           Samuel D.%Racette%NULL%1,                           Alexander L.%Schneider%NULL%1,                           Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%0,                            Huilong%Chen%NULL%0,                            Weiming%Yan%NULL%0,                            Danlei%Yang%NULL%0,                            Guang%Chen%NULL%0,                            Ke%Ma%NULL%0,                            Dong%Xu%NULL%0,                            Haijing%Yu%NULL%0,                            Hongwu%Wang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%0,                            Jia%Chen%NULL%0,                            Chen%Ding%NULL%0,                            Xiaoping%Zhang%NULL%0,                            Jiaquan%Huang%NULL%0,                            Meifang%Han%NULL%0,                            Shusheng%Li%NULL%0,                            Xiaoping%Luo%NULL%0,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                            Dan%Xu%NULL%0,                            Shouzhi%Fu%NULL%0,                            Jun%Zhang%NULL%0,                            Xiaobo%Yang%NULL%0,                            Liang%Xu%NULL%0,                            Jiqian%Xu%NULL%0,                            Yongran%Wu%NULL%0,                            Chaolin%Huang%NULL%0,                            Yaqi%Ouyang%NULL%0,                            Luyu%Yang%NULL%0,                            Minghao%Fang%NULL%0,                            Hongwen%Xiao%NULL%0,                            Jing%Ma%NULL%0,                            Wei%Zhu%NULL%0,                            Song%Hu%NULL%0,                            Quan%Hu%NULL%0,                            Daoyin%Ding%NULL%0,                            Ming%Hu%NULL%0,                            Guochao%Zhu%NULL%0,                            Weijiang%Xu%NULL%0,                            Jun%Guo%NULL%0,                            Jinglong%Xu%NULL%0,                            Haitao%Yuan%NULL%0,                            Bin%Zhang%NULL%0,                            Zhui%Yu%yuzhui@whu.edu.cn%0,                            Dechang%Chen%icudechangchen@163.com%0,                            Shiying%Yuan%yuan_shiying@163.com%0,                            You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                            Bijan J.%Ghassemieh%NULL%0,                            Michelle%Nichols%NULL%0,                            Richard%Kim%NULL%0,                            Keith R.%Jerome%NULL%0,                            Arun K.%Nalla%NULL%0,                            Alexander L.%Greninger%NULL%0,                            Sudhakar%Pipavath%NULL%0,                            Mark M.%Wurfel%NULL%0,                            Laura%Evans%NULL%0,                            Patricia A.%Kritek%NULL%0,                            T. Eoin%West%NULL%0,                            Andrew%Luks%NULL%0,                            Anthony%Gerbino%NULL%0,                            Chris R.%Dale%NULL%0,                            Jason D.%Goldman%NULL%0,                            Shane%O’Mahony%NULL%0,                            Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                            Hiroyuki%Shimizu%NULL%1,                            Yasushi%Shibue%NULL%1,                            Tomohiro%Hosoda%NULL%1,                            Keisuke%Iwabuchi%NULL%1,                            Kotaro%Nagamine%NULL%1,                            Hiroki%Saito%NULL%1,                            Reimin%Sawada%NULL%1,                            Takayuki%Oishi%NULL%1,                            Jun%Tsukiji%NULL%1,                            Hiroyuki%Fujita%NULL%1,                            Ryosuke%Furuya%NULL%1,                            Makoto%Masuda%NULL%1,                            Osamu%Akasaka%NULL%1,                            Yu%Ikeda%NULL%1,                            Mitsuo%Sakamoto%NULL%1,                            Kazuya%Sakai%NULL%1,                            Munehito%Uchiyama%NULL%1,                            Hiroki%Watanabe%NULL%1,                            Nobuhiro%Yamaguchi%NULL%1,                            Ryoko%Higa%NULL%1,                            Akiko%Sasaki%NULL%1,                            Katsuaki%Tanaka%NULL%1,                            Yukitoshi%Toyoda%NULL%1,                            Shinsuke%Hamanaka%NULL%1,                            Naoki%Miyazawa%NULL%1,                            Atsuko%Shimizu%NULL%1,                            Fumie%Fukase%NULL%1,                            Shunsuke%Iwai%NULL%1,                            Yuko%Komase%NULL%1,                            Tsutomu%Kawasaki%NULL%1,                            Isao%Nagata%NULL%1,                            Yusuke%Nakayama%NULL%1,                            Tetsuhiro%Takei%NULL%1,                            Katsuo%Kimura%NULL%1,                            Reiko%Kunisaki%NULL%1,                            Makoto%Kudo%NULL%1,                            Ichiro%Takeuchi%NULL%0,                            Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%0,                            Jiqian%Xu%NULL%0,                            Huaqing%Shu%NULL%0,                            Jia'an%Xia%NULL%0,                            Hong%Liu%NULL%0,                            Yongran%Wu%NULL%0,                            Lu%Zhang%NULL%0,                            Zhui%Yu%NULL%0,                            Minghao%Fang%NULL%0,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%0,                            Shangwen%Pan%NULL%0,                            Xiaojing%Zou%NULL%0,                            Shiying%Yuan%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                            Rong Hua%Tian%NULL%1,                            Song%Luo%NULL%1,                            Zi Yue%Zu%NULL%1,                            Bin%Fan%NULL%1,                            Xi Ming%Wang%NULL%1,                            Kai%Xu%NULL%1,                            Jiang Tao%Wang%NULL%1,                            Juan%Zhu%NULL%1,                            Ji Chan%Shi%NULL%1,                            Feng%Chen%NULL%1,                            Bing%Wan%NULL%1,                            Zhi Han%Yan%NULL%1,                            Rong Pin%Wang%NULL%1,                            Wen%Chen%NULL%1,                            Wen Hui%Fan%NULL%1,                            Can%Zhang%NULL%1,                            Meng Jie%Lu%NULL%1,                            Zhi Yuan%Sun%NULL%1,                            Chang Sheng%Zhou%NULL%1,                            Li Na%Zhang%NULL%1,                            Fei%Xia%NULL%1,                            Li%Qi%NULL%1,                            Wei%Zhang%NULL%0,                            Jing%Zhong%NULL%1,                            Xiao Xue%Liu%NULL%1,                            Qi Rui%Zhang%NULL%1,                            Guang Ming%Lu%NULL%1,                            Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                            Matthew R%Baldwin%NULL%0,                            Darryl%Abrams%NULL%1,                            Samuel D%Jacobson%NULL%1,                            Benjamin J%Meyer%NULL%1,                            Elizabeth M%Balough%NULL%1,                            Justin G%Aaron%NULL%1,                            Jan%Claassen%NULL%1,                            LeRoy E%Rabbani%NULL%1,                            Jonathan%Hastie%NULL%1,                            Beth R%Hochman%NULL%1,                            John%Salazar-Schicchi%NULL%1,                            Natalie H%Yip%NULL%1,                            Daniel%Brodie%NULL%2,                            Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                            Samuel L%Bruce%NULL%0,                            Cody L%Slater%NULL%0,                            Jonathan R%Tiao%NULL%0,                            Matthew R%Baldwin%NULL%0,                            R Graham%Barr%NULL%0,                            Bernard P%Chang%NULL%0,                            Katherine H%Chau%NULL%0,                            Justin J%Choi%NULL%0,                            Nicholas%Gavin%NULL%0,                            Parag%Goyal%NULL%0,                            Angela M%Mills%NULL%0,                            Ashmi A%Patel%NULL%0,                            Marie-Laure S%Romney%NULL%0,                            Monika M%Safford%NULL%0,                            Neil W%Schluger%NULL%0,                            Soumitra%Sengupta%NULL%0,                            Magdalena E%Sobieszczyk%NULL%0,                            Jason E%Zucker%NULL%0,                            Paul A%Asadourian%NULL%0,                            Fletcher M%Bell%NULL%0,                            Rebekah%Boyd%NULL%0,                            Matthew F%Cohen%NULL%0,                            MacAlistair I%Colquhoun%NULL%0,                            Lucy A%Colville%NULL%0,                            Joseph H%de Jonge%NULL%0,                            Lyle B%Dershowitz%NULL%0,                            Shirin A%Dey%NULL%0,                            Katherine A%Eiseman%NULL%0,                            Zachary P%Girvin%NULL%0,                            Daniella T%Goni%NULL%0,                            Amro A%Harb%NULL%0,                            Nicholas%Herzik%NULL%0,                            Sarah%Householder%NULL%0,                            Lara E%Karaaslan%NULL%0,                            Heather%Lee%NULL%0,                            Evan%Lieberman%NULL%0,                            Andrew%Ling%NULL%0,                            Ree%Lu%NULL%0,                            Arthur Y%Shou%NULL%0,                            Alexander C%Sisti%NULL%0,                            Zachary E%Snow%NULL%0,                            Colin P%Sperring%NULL%0,                            Yuqing%Xiong%NULL%0,                            Henry W%Zhou%NULL%0,                            Karthik%Natarajan%NULL%0,                            George%Hripcsak%NULL%0,                            Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                            Mark%Caridi-Scheible%NULL%0,                            James M.%Blum%NULL%0,                            Chad%Robichaux%NULL%0,                            Colleen%Kraft%NULL%0,                            Jesse T.%Jacob%NULL%0,                            Craig S.%Jabaley%NULL%0,                            David%Carpenter%NULL%0,                            Roberta%Kaplow%NULL%0,                            Alfonso C.%Hernandez-Romieu%NULL%0,                            Max W.%Adelman%NULL%0,                            Greg S.%Martin%NULL%0,                            Craig M.%Coopersmith%NULL%0,                            David J.%Murphy%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                            Caroline P. E.%Price%NULL%1,                            Elizabeth L.%Gray%NULL%1,                            Reeti K.%Gulati%NULL%1,                            Matthew%Maksimoski%NULL%1,                            Samuel D.%Racette%NULL%1,                            Alexander L.%Schneider%NULL%1,                            Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                             Di%Wu%NULL%0,                             Huilong%Chen%NULL%0,                             Weiming%Yan%NULL%0,                             Danlei%Yang%NULL%0,                             Guang%Chen%NULL%0,                             Ke%Ma%NULL%0,                             Dong%Xu%NULL%0,                             Haijing%Yu%NULL%0,                             Hongwu%Wang%NULL%0,                             Tao%Wang%NULL%0,                             Wei%Guo%NULL%0,                             Jia%Chen%NULL%0,                             Chen%Ding%NULL%0,                             Xiaoping%Zhang%NULL%0,                             Jiaquan%Huang%NULL%0,                             Meifang%Han%NULL%0,                             Shusheng%Li%NULL%0,                             Xiaoping%Luo%NULL%0,                             Jianping%Zhao%NULL%0,                             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                             Dan%Xu%NULL%0,                             Shouzhi%Fu%NULL%0,                             Jun%Zhang%NULL%0,                             Xiaobo%Yang%NULL%0,                             Liang%Xu%NULL%0,                             Jiqian%Xu%NULL%0,                             Yongran%Wu%NULL%0,                             Chaolin%Huang%NULL%0,                             Yaqi%Ouyang%NULL%0,                             Luyu%Yang%NULL%0,                             Minghao%Fang%NULL%0,                             Hongwen%Xiao%NULL%0,                             Jing%Ma%NULL%0,                             Wei%Zhu%NULL%0,                             Song%Hu%NULL%0,                             Quan%Hu%NULL%0,                             Daoyin%Ding%NULL%0,                             Ming%Hu%NULL%0,                             Guochao%Zhu%NULL%0,                             Weijiang%Xu%NULL%0,                             Jun%Guo%NULL%0,                             Jinglong%Xu%NULL%0,                             Haitao%Yuan%NULL%0,                             Bin%Zhang%NULL%0,                             Zhui%Yu%yuzhui@whu.edu.cn%0,                             Dechang%Chen%icudechangchen@163.com%0,                             Shiying%Yuan%yuan_shiying@163.com%0,                             You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                             Bijan J.%Ghassemieh%NULL%0,                             Michelle%Nichols%NULL%0,                             Richard%Kim%NULL%0,                             Keith R.%Jerome%NULL%0,                             Arun K.%Nalla%NULL%0,                             Alexander L.%Greninger%NULL%0,                             Sudhakar%Pipavath%NULL%0,                             Mark M.%Wurfel%NULL%0,                             Laura%Evans%NULL%0,                             Patricia A.%Kritek%NULL%0,                             T. Eoin%West%NULL%0,                             Andrew%Luks%NULL%0,                             Anthony%Gerbino%NULL%0,                             Chris R.%Dale%NULL%0,                             Jason D.%Goldman%NULL%0,                             Shane%O’Mahony%NULL%0,                             Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%1,                             Hiroyuki%Shimizu%NULL%1,                             Yasushi%Shibue%NULL%1,                             Tomohiro%Hosoda%NULL%1,                             Keisuke%Iwabuchi%NULL%1,                             Kotaro%Nagamine%NULL%1,                             Hiroki%Saito%NULL%1,                             Reimin%Sawada%NULL%1,                             Takayuki%Oishi%NULL%1,                             Jun%Tsukiji%NULL%1,                             Hiroyuki%Fujita%NULL%1,                             Ryosuke%Furuya%NULL%1,                             Makoto%Masuda%NULL%1,                             Osamu%Akasaka%NULL%1,                             Yu%Ikeda%NULL%1,                             Mitsuo%Sakamoto%NULL%1,                             Kazuya%Sakai%NULL%1,                             Munehito%Uchiyama%NULL%1,                             Hiroki%Watanabe%NULL%1,                             Nobuhiro%Yamaguchi%NULL%1,                             Ryoko%Higa%NULL%1,                             Akiko%Sasaki%NULL%1,                             Katsuaki%Tanaka%NULL%1,                             Yukitoshi%Toyoda%NULL%1,                             Shinsuke%Hamanaka%NULL%1,                             Naoki%Miyazawa%NULL%1,                             Atsuko%Shimizu%NULL%1,                             Fumie%Fukase%NULL%1,                             Shunsuke%Iwai%NULL%1,                             Yuko%Komase%NULL%1,                             Tsutomu%Kawasaki%NULL%1,                             Isao%Nagata%NULL%1,                             Yusuke%Nakayama%NULL%1,                             Tetsuhiro%Takei%NULL%1,                             Katsuo%Kimura%NULL%1,                             Reiko%Kunisaki%NULL%1,                             Makoto%Kudo%NULL%1,                             Ichiro%Takeuchi%NULL%0,                             Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%0,                             Jiqian%Xu%NULL%0,                             Huaqing%Shu%NULL%0,                             Jia'an%Xia%NULL%0,                             Hong%Liu%NULL%0,                             Yongran%Wu%NULL%0,                             Lu%Zhang%NULL%0,                             Zhui%Yu%NULL%0,                             Minghao%Fang%NULL%0,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%0,                             Shangwen%Pan%NULL%0,                             Xiaojing%Zou%NULL%0,                             Shiying%Yuan%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%1,                             Rong Hua%Tian%NULL%1,                             Song%Luo%NULL%1,                             Zi Yue%Zu%NULL%1,                             Bin%Fan%NULL%1,                             Xi Ming%Wang%NULL%1,                             Kai%Xu%NULL%1,                             Jiang Tao%Wang%NULL%1,                             Juan%Zhu%NULL%1,                             Ji Chan%Shi%NULL%1,                             Feng%Chen%NULL%1,                             Bing%Wan%NULL%1,                             Zhi Han%Yan%NULL%1,                             Rong Pin%Wang%NULL%1,                             Wen%Chen%NULL%1,                             Wen Hui%Fan%NULL%1,                             Can%Zhang%NULL%1,                             Meng Jie%Lu%NULL%1,                             Zhi Yuan%Sun%NULL%1,                             Chang Sheng%Zhou%NULL%1,                             Li Na%Zhang%NULL%1,                             Fei%Xia%NULL%1,                             Li%Qi%NULL%1,                             Wei%Zhang%NULL%0,                             Jing%Zhong%NULL%1,                             Xiao Xue%Liu%NULL%1,                             Qi Rui%Zhang%NULL%1,                             Guang Ming%Lu%NULL%1,                             Long Jiang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%2,                             Matthew R%Baldwin%NULL%0,                             Darryl%Abrams%NULL%1,                             Samuel D%Jacobson%NULL%1,                             Benjamin J%Meyer%NULL%1,                             Elizabeth M%Balough%NULL%1,                             Justin G%Aaron%NULL%1,                             Jan%Claassen%NULL%1,                             LeRoy E%Rabbani%NULL%1,                             Jonathan%Hastie%NULL%1,                             Beth R%Hochman%NULL%1,                             John%Salazar-Schicchi%NULL%1,                             Natalie H%Yip%NULL%1,                             Daniel%Brodie%NULL%2,                             Max R%O'Donnell%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                             Samuel L%Bruce%NULL%0,                             Cody L%Slater%NULL%0,                             Jonathan R%Tiao%NULL%0,                             Matthew R%Baldwin%NULL%0,                             R Graham%Barr%NULL%0,                             Bernard P%Chang%NULL%0,                             Katherine H%Chau%NULL%0,                             Justin J%Choi%NULL%0,                             Nicholas%Gavin%NULL%0,                             Parag%Goyal%NULL%0,                             Angela M%Mills%NULL%0,                             Ashmi A%Patel%NULL%0,                             Marie-Laure S%Romney%NULL%0,                             Monika M%Safford%NULL%0,                             Neil W%Schluger%NULL%0,                             Soumitra%Sengupta%NULL%0,                             Magdalena E%Sobieszczyk%NULL%0,                             Jason E%Zucker%NULL%0,                             Paul A%Asadourian%NULL%0,                             Fletcher M%Bell%NULL%0,                             Rebekah%Boyd%NULL%0,                             Matthew F%Cohen%NULL%0,                             MacAlistair I%Colquhoun%NULL%0,                             Lucy A%Colville%NULL%0,                             Joseph H%de Jonge%NULL%0,                             Lyle B%Dershowitz%NULL%0,                             Shirin A%Dey%NULL%0,                             Katherine A%Eiseman%NULL%0,                             Zachary P%Girvin%NULL%0,                             Daniella T%Goni%NULL%0,                             Amro A%Harb%NULL%0,                             Nicholas%Herzik%NULL%0,                             Sarah%Householder%NULL%0,                             Lara E%Karaaslan%NULL%0,                             Heather%Lee%NULL%0,                             Evan%Lieberman%NULL%0,                             Andrew%Ling%NULL%0,                             Ree%Lu%NULL%0,                             Arthur Y%Shou%NULL%0,                             Alexander C%Sisti%NULL%0,                             Zachary E%Snow%NULL%0,                             Colin P%Sperring%NULL%0,                             Yuqing%Xiong%NULL%0,                             Henry W%Zhou%NULL%0,                             Karthik%Natarajan%NULL%0,                             George%Hripcsak%NULL%0,                             Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                             Mark%Caridi-Scheible%NULL%0,                             James M.%Blum%NULL%0,                             Chad%Robichaux%NULL%0,                             Colleen%Kraft%NULL%0,                             Jesse T.%Jacob%NULL%0,                             Craig S.%Jabaley%NULL%0,                             David%Carpenter%NULL%0,                             Roberta%Kaplow%NULL%0,                             Alfonso C.%Hernandez-Romieu%NULL%0,                             Max W.%Adelman%NULL%0,                             Greg S.%Martin%NULL%0,                             Craig M.%Coopersmith%NULL%0,                             David J.%Murphy%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%1,                             Caroline P. E.%Price%NULL%1,                             Elizabeth L.%Gray%NULL%1,                             Reeti K.%Gulati%NULL%1,                             Matthew%Maksimoski%NULL%1,                             Samuel D.%Racette%NULL%1,                             Alexander L.%Schneider%NULL%1,                             Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0, Di%Wu%NULL%0, Huilong%Chen%NULL%0, Weiming%Yan%NULL%0, Danlei%Yang%NULL%0, Guang%Chen%NULL%0, Ke%Ma%NULL%0, Dong%Xu%NULL%0, Haijing%Yu%NULL%0, Hongwu%Wang%NULL%0, Tao%Wang%NULL%0, Wei%Guo%NULL%0, Jia%Chen%NULL%0, Chen%Ding%NULL%0, Xiaoping%Zhang%NULL%0, Jiaquan%Huang%NULL%0, Meifang%Han%NULL%0, Shusheng%Li%NULL%0, Xiaoping%Luo%NULL%0, Jianping%Zhao%NULL%0, Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0, Dan%Xu%NULL%0, Shouzhi%Fu%NULL%0, Jun%Zhang%NULL%0, Xiaobo%Yang%NULL%0, Liang%Xu%NULL%0, Jiqian%Xu%NULL%0, Yongran%Wu%NULL%0, Chaolin%Huang%NULL%0, Yaqi%Ouyang%NULL%0, Luyu%Yang%NULL%0, Minghao%Fang%NULL%0, Hongwen%Xiao%NULL%0, Jing%Ma%NULL%0, Wei%Zhu%NULL%0, Song%Hu%NULL%0, Quan%Hu%NULL%0, Daoyin%Ding%NULL%0, Ming%Hu%NULL%0, Guochao%Zhu%NULL%0, Weijiang%Xu%NULL%0, Jun%Guo%NULL%0, Jinglong%Xu%NULL%0, Haitao%Yuan%NULL%0, Bin%Zhang%NULL%0, Zhui%Yu%yuzhui@whu.edu.cn%0, Dechang%Chen%icudechangchen@163.com%0, Shiying%Yuan%yuan_shiying@163.com%0, You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0, Bijan J.%Ghassemieh%NULL%0, Michelle%Nichols%NULL%0, Richard%Kim%NULL%0, Keith R.%Jerome%NULL%0, Arun K.%Nalla%NULL%0, Alexander L.%Greninger%NULL%0, Sudhakar%Pipavath%NULL%0, Mark M.%Wurfel%NULL%0, Laura%Evans%NULL%0, Patricia A.%Kritek%NULL%0, T. Eoin%West%NULL%0, Andrew%Luks%NULL%0, Anthony%Gerbino%NULL%0, Chris R.%Dale%NULL%0, Jason D.%Goldman%NULL%0, Shane%O’Mahony%NULL%0, Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We investigated the clinical course of individuals with 2019 novel coronavirus disease (COVID-19) who were transferred from the Diamond Princess cruise ship to 12 local hospitals.
+ The conditions and clinical courses of patients with pneumonia were compared with those of patients without pneumonia.
+ Among 70 patients (median age: 67 years) analyzed, the major symptoms were fever (64.3%), cough (54.3%), and general fatigue (24.3%).
+ Forty-three patients (61.4%) had pneumonia.
+ Higher body temperature, heart rate, and respiratory rate as well as higher of lactate dehydrogenase (LDH), aspartate aminotransferase (AST), and C-reactive protein (CRP) levels and lower serum albumin level and lymphocyte count were associated with the presence of pneumonia.
+ Ground-glass opacity was found in 97.7% of the patients with pneumonia.
+ Patients were administered neuraminidase inhibitors (20%), lopinavir/ritonavir (32.9%), and ciclesonide inhalation (11.4%).
+ Mechanical ventilation and veno-venous extracorporeal membrane oxygenation was performed on 14 (20%) and 2 (2.9%) patients, respectively; two patients died.
+ The median duration of intubation was 12 days.
+ The patients with COVID-19 transferred to local hospitals during the outbreak had severe conditions and needed close monitoring.
+ The severity of COVID-19 depends on the presence of pneumonia.
+ High serum LDH, AST and CRP levels and low serum albumin level and lymphocyte count were found to be predictors of pneumonia.
+ It was challenging for local hospitals to admit and treat these patients during the outbreak of COVID-19. Assessment of severity was crucial to manage a large number of patients.
+</t>
+  </si>
+  <si>
+    <t>[Hideaki%Kato%NULL%0, Hiroyuki%Shimizu%NULL%1, Yasushi%Shibue%NULL%1, Tomohiro%Hosoda%NULL%1, Keisuke%Iwabuchi%NULL%1, Kotaro%Nagamine%NULL%1, Hiroki%Saito%NULL%1, Reimin%Sawada%NULL%1, Takayuki%Oishi%NULL%1, Jun%Tsukiji%NULL%1, Hiroyuki%Fujita%NULL%1, Ryosuke%Furuya%NULL%1, Makoto%Masuda%NULL%1, Osamu%Akasaka%NULL%1, Yu%Ikeda%NULL%1, Mitsuo%Sakamoto%NULL%1, Kazuya%Sakai%NULL%1, Munehito%Uchiyama%NULL%1, Hiroki%Watanabe%NULL%1, Nobuhiro%Yamaguchi%NULL%1, Ryoko%Higa%NULL%1, Akiko%Sasaki%NULL%1, Katsuaki%Tanaka%NULL%1, Yukitoshi%Toyoda%NULL%1, Shinsuke%Hamanaka%NULL%1, Naoki%Miyazawa%NULL%1, Atsuko%Shimizu%NULL%1, Fumie%Fukase%NULL%1, Shunsuke%Iwai%NULL%1, Yuko%Komase%NULL%1, Tsutomu%Kawasaki%NULL%1, Isao%Nagata%NULL%1, Yusuke%Nakayama%NULL%1, Tetsuhiro%Takei%NULL%1, Katsuo%Kimura%NULL%1, Reiko%Kunisaki%NULL%1, Makoto%Kudo%NULL%1, Ichiro%Takeuchi%NULL%0, Hideaki%Nakajima%NULL%1]</t>
+  </si>
+  <si>
+    <t>Japanese Society of Chemotherapy and The Japanese Association for Infectious Diseases. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: The risk factors for adverse events of Coronavirus Disease-19 (COVID-19) have not been well described.
+ We aimed to explore the predictive value of clinical, laboratory and CT imaging characteristics on admission for short-term outcomes of COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Peng Peng%Xu%NULL%0, Rong Hua%Tian%NULL%1, Song%Luo%NULL%0, Zi Yue%Zu%NULL%1, Bin%Fan%NULL%1, Xi Ming%Wang%NULL%1, Kai%Xu%NULL%1, Jiang Tao%Wang%NULL%1, Juan%Zhu%NULL%1, Ji Chan%Shi%NULL%1, Feng%Chen%NULL%1, Bing%Wan%NULL%1, Zhi Han%Yan%NULL%1, Rong Pin%Wang%NULL%1, Wen%Chen%NULL%1, Wen Hui%Fan%NULL%1, Can%Zhang%NULL%1, Meng Jie%Lu%NULL%1, Zhi Yuan%Sun%NULL%0, Chang Sheng%Zhou%NULL%0, Li Na%Zhang%NULL%1, Fei%Xia%NULL%0, Li%Qi%NULL%1, Wei%Zhang%NULL%0, Jing%Zhong%NULL%1, Xiao Xue%Liu%NULL%1, Qi Rui%Zhang%NULL%1, Guang Ming%Lu%NULL%0, Long Jiang%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Ivyspring International Publisher</t>
+  </si>
+  <si>
+    <t>[Matthew J%Cummings%NULL%0, Matthew R%Baldwin%NULL%0, Darryl%Abrams%NULL%2, Samuel D%Jacobson%NULL%2, Benjamin J%Meyer%NULL%2, Elizabeth M%Balough%NULL%2, Justin G%Aaron%NULL%2, Jan%Claassen%NULL%0, LeRoy E%Rabbani%NULL%2, Jonathan%Hastie%NULL%2, Beth R%Hochman%NULL%2, John%Salazar-Schicchi%NULL%2, Natalie H%Yip%NULL%2, Daniel%Brodie%NULL%0, Max R%O'Donnell%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0, Samuel L%Bruce%NULL%0, Cody L%Slater%NULL%0, Jonathan R%Tiao%NULL%0, Matthew R%Baldwin%NULL%0, R Graham%Barr%NULL%0, Bernard P%Chang%NULL%0, Katherine H%Chau%NULL%0, Justin J%Choi%NULL%0, Nicholas%Gavin%NULL%0, Parag%Goyal%NULL%0, Angela M%Mills%NULL%0, Ashmi A%Patel%NULL%0, Marie-Laure S%Romney%NULL%0, Monika M%Safford%NULL%0, Neil W%Schluger%NULL%0, Soumitra%Sengupta%NULL%0, Magdalena E%Sobieszczyk%NULL%0, Jason E%Zucker%NULL%0, Paul A%Asadourian%NULL%0, Fletcher M%Bell%NULL%0, Rebekah%Boyd%NULL%0, Matthew F%Cohen%NULL%0, MacAlistair I%Colquhoun%NULL%0, Lucy A%Colville%NULL%0, Joseph H%de Jonge%NULL%0, Lyle B%Dershowitz%NULL%0, Shirin A%Dey%NULL%0, Katherine A%Eiseman%NULL%0, Zachary P%Girvin%NULL%0, Daniella T%Goni%NULL%0, Amro A%Harb%NULL%0, Nicholas%Herzik%NULL%0, Sarah%Householder%NULL%0, Lara E%Karaaslan%NULL%0, Heather%Lee%NULL%0, Evan%Lieberman%NULL%0, Andrew%Ling%NULL%0, Ree%Lu%NULL%0, Arthur Y%Shou%NULL%0, Alexander C%Sisti%NULL%0, Zachary E%Snow%NULL%0, Colin P%Sperring%NULL%0, Yuqing%Xiong%NULL%0, Henry W%Zhou%NULL%0, Karthik%Natarajan%NULL%0, George%Hripcsak%NULL%0, Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0, Mark%Caridi-Scheible%NULL%0, James M.%Blum%NULL%0, Chad%Robichaux%NULL%0, Colleen%Kraft%NULL%0, Jesse T.%Jacob%NULL%0, Craig S.%Jabaley%NULL%0, David%Carpenter%NULL%0, Roberta%Kaplow%NULL%0, Alfonso C.%Hernandez-Romieu%NULL%0, Max W.%Adelman%NULL%0, Greg S.%Martin%NULL%0, Craig M.%Coopersmith%NULL%0, David J.%Murphy%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Kevin%Hur%NULL%0, Caroline P. E.%Price%NULL%1, Elizabeth L.%Gray%NULL%1, Reeti K.%Gulati%NULL%1, Matthew%Maksimoski%NULL%1, Samuel D.%Racette%NULL%1, Alexander L.%Schneider%NULL%1, Ashoke R.%Khanwalkar%NULL%1]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
   </si>
 </sst>
 </file>
@@ -2001,22 +2136,22 @@
         <v>43920.0</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>434</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>117</v>
@@ -2039,7 +2174,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -2051,10 +2186,10 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4">
@@ -2068,10 +2203,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -2083,10 +2218,10 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>334</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5">
@@ -2097,25 +2232,25 @@
         <v>43977.0</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>453</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="J5" t="s">
         <v>117</v>
@@ -2129,25 +2264,25 @@
         <v>43949.0</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>454</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="J6" t="s">
         <v>117</v>
@@ -2167,7 +2302,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -2179,10 +2314,10 @@
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8">
@@ -2196,10 +2331,10 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>490</v>
       </c>
       <c r="E8" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -2211,10 +2346,10 @@
         <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>340</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9">
@@ -2225,28 +2360,28 @@
         <v>44013.0</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
         <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>371</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -2263,7 +2398,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -2275,10 +2410,10 @@
         <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>340</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11">
@@ -2292,10 +2427,10 @@
         <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>495</v>
       </c>
       <c r="E11" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -2307,10 +2442,10 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12">
@@ -2327,7 +2462,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2339,10 +2474,10 @@
         <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>340</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13">
@@ -2359,7 +2494,7 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -2371,10 +2506,10 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14">
@@ -2385,25 +2520,25 @@
         <v>44011.0</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>461</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>336</v>
+        <v>117</v>
       </c>
       <c r="J14" t="s">
         <v>117</v>
@@ -2423,7 +2558,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="F15" t="s">
         <v>79</v>
@@ -2435,10 +2570,10 @@
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16">
@@ -2455,7 +2590,7 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
@@ -2467,10 +2602,10 @@
         <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
